--- a/data/BOC/APEP/CBRT/Central Birth Rate.xlsx
+++ b/data/BOC/APEP/CBRT/Central Birth Rate.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CBRT" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,77 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>ANRBFT1550</t>
-  </si>
-  <si>
-    <t>15 to 50 years old</t>
-  </si>
-  <si>
-    <t>ANRBFT1544</t>
-  </si>
-  <si>
-    <t>15 to 44 years old</t>
-  </si>
-  <si>
-    <t>ANRBFT1519</t>
-  </si>
-  <si>
-    <t>15 to 19 years old</t>
-  </si>
-  <si>
-    <t>ANRBFT2024</t>
-  </si>
-  <si>
-    <t>20 to 24 years old</t>
-  </si>
-  <si>
-    <t>ANRBFT2529</t>
-  </si>
-  <si>
-    <t>25 to 29 years old</t>
-  </si>
-  <si>
-    <t>ANRBFT3034</t>
-  </si>
-  <si>
-    <t>30 to 34 years old</t>
-  </si>
-  <si>
-    <t>ANRBFT3539</t>
-  </si>
-  <si>
-    <t>35 to 39 years old</t>
-  </si>
-  <si>
-    <t>ANRBFT4044</t>
-  </si>
-  <si>
-    <t>40 to 44 years old</t>
-  </si>
-  <si>
-    <t>ANRBFT4550</t>
-  </si>
-  <si>
-    <t>45 to 50 years old</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -437,9 +366,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:32">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
       </c>
       <c r="B1" s="1" t="n">
         <v>1976</v>
@@ -525,44 +456,52 @@
       <c r="AC1" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>3</v>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Label</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:32">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
-      <c r="D2" t="s"/>
-      <c r="E2" t="s"/>
-      <c r="F2" t="s"/>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
-      <c r="J2" t="s"/>
-      <c r="K2" t="s"/>
-      <c r="L2" t="s"/>
-      <c r="M2" t="s"/>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
-      <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
-      <c r="V2" t="s"/>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
-      <c r="Y2" t="s"/>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>ANRBFT1550</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="n">
         <v>1297</v>
       </c>
@@ -575,37 +514,43 @@
       <c r="AC2" t="n">
         <v>1227</v>
       </c>
-      <c r="AD2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>5</v>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>ANRBFT1550</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>15 to 50 years old</t>
+        </is>
       </c>
       <c r="AF2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
-      <c r="D3" t="s"/>
-      <c r="E3" t="s"/>
-      <c r="F3" t="s"/>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s"/>
-      <c r="J3" t="s"/>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>ANRBFT1544</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
         <v>1227</v>
       </c>
@@ -639,37 +584,43 @@
       <c r="AC3" t="n">
         <v>1076</v>
       </c>
-      <c r="AD3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>7</v>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>ANRBFT1544</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>15 to 44 years old</t>
+        </is>
       </c>
       <c r="AF3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
-      <c r="D4" t="s"/>
-      <c r="E4" t="s"/>
-      <c r="F4" t="s"/>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s"/>
-      <c r="J4" t="s"/>
-      <c r="K4" t="s"/>
-      <c r="L4" t="s"/>
-      <c r="M4" t="s"/>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>ANRBFT1519</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
         <v>138</v>
       </c>
@@ -703,37 +654,43 @@
       <c r="AC4" t="n">
         <v>46</v>
       </c>
-      <c r="AD4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>9</v>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>ANRBFT1519</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>15 to 19 years old</t>
+        </is>
       </c>
       <c r="AF4" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
-      <c r="D5" t="s"/>
-      <c r="E5" t="s"/>
-      <c r="F5" t="s"/>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s"/>
-      <c r="J5" t="s"/>
-      <c r="K5" t="s"/>
-      <c r="L5" t="s"/>
-      <c r="M5" t="s"/>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>ANRBFT2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
         <v>555</v>
       </c>
@@ -767,37 +724,43 @@
       <c r="AC5" t="n">
         <v>308</v>
       </c>
-      <c r="AD5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>11</v>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>ANRBFT2024</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>20 to 24 years old</t>
+        </is>
       </c>
       <c r="AF5" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
-      <c r="D6" t="s"/>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s"/>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s"/>
-      <c r="J6" t="s"/>
-      <c r="K6" t="s"/>
-      <c r="L6" t="s"/>
-      <c r="M6" t="s"/>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>ANRBFT2529</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
         <v>1063</v>
       </c>
@@ -831,37 +794,43 @@
       <c r="AC6" t="n">
         <v>842</v>
       </c>
-      <c r="AD6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>13</v>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>ANRBFT2529</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>25 to 29 years old</t>
+        </is>
       </c>
       <c r="AF6" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
-      <c r="D7" t="s"/>
-      <c r="E7" t="s"/>
-      <c r="F7" t="s"/>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
-      <c r="K7" t="s"/>
-      <c r="L7" t="s"/>
-      <c r="M7" t="s"/>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>ANRBFT3034</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
         <v>1546</v>
       </c>
@@ -895,37 +864,43 @@
       <c r="AC7" t="n">
         <v>1402</v>
       </c>
-      <c r="AD7" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>15</v>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>ANRBFT3034</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>30 to 34 years old</t>
+        </is>
       </c>
       <c r="AF7" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
-      <c r="D8" t="s"/>
-      <c r="E8" t="s"/>
-      <c r="F8" t="s"/>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
-      <c r="K8" t="s"/>
-      <c r="L8" t="s"/>
-      <c r="M8" t="s"/>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>ANRBFT3539</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
         <v>1877</v>
       </c>
@@ -959,19 +934,25 @@
       <c r="AC8" t="n">
         <v>1855</v>
       </c>
-      <c r="AD8" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>17</v>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>ANRBFT3539</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>35 to 39 years old</t>
+        </is>
       </c>
       <c r="AF8" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>ANRBFT4044</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>3091</v>
@@ -1057,44 +1038,50 @@
       <c r="AC9" t="n">
         <v>2036</v>
       </c>
-      <c r="AD9" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>19</v>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>ANRBFT4044</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>40 to 44 years old</t>
+        </is>
       </c>
       <c r="AF9" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:32">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
-      <c r="D10" t="s"/>
-      <c r="E10" t="s"/>
-      <c r="F10" t="s"/>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s"/>
-      <c r="J10" t="s"/>
-      <c r="K10" t="s"/>
-      <c r="L10" t="s"/>
-      <c r="M10" t="s"/>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
-      <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
-      <c r="V10" t="s"/>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
-      <c r="Y10" t="s"/>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>ANRBFT4550</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="n">
         <v>1982</v>
       </c>
@@ -1107,11 +1094,15 @@
       <c r="AC10" t="n">
         <v>1999</v>
       </c>
-      <c r="AD10" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>21</v>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>ANRBFT4550</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>45 to 50 years old</t>
+        </is>
       </c>
       <c r="AF10" t="n">
         <v>8</v>

--- a/data/BOC/APEP/CBRT/Central Birth Rate.xlsx
+++ b/data/BOC/APEP/CBRT/Central Birth Rate.xlsx
@@ -1,37 +1,123 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\US\data\BOC\APEP\CBRT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC98773-BFAC-4B87-AED2-8FF1215B7BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CBRT" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="CBRT" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>ANRBFT1550</t>
+  </si>
+  <si>
+    <t>15 to 50 years old</t>
+  </si>
+  <si>
+    <t>ANRBFT1544</t>
+  </si>
+  <si>
+    <t>15 to 44 years old</t>
+  </si>
+  <si>
+    <t>ANRBFT1519</t>
+  </si>
+  <si>
+    <t>15 to 19 years old</t>
+  </si>
+  <si>
+    <t>ANRBFT2024</t>
+  </si>
+  <si>
+    <t>20 to 24 years old</t>
+  </si>
+  <si>
+    <t>ANRBFT2529</t>
+  </si>
+  <si>
+    <t>25 to 29 years old</t>
+  </si>
+  <si>
+    <t>ANRBFT3034</t>
+  </si>
+  <si>
+    <t>30 to 34 years old</t>
+  </si>
+  <si>
+    <t>ANRBFT3539</t>
+  </si>
+  <si>
+    <t>35 to 39 years old</t>
+  </si>
+  <si>
+    <t>ANRBFT4044</t>
+  </si>
+  <si>
+    <t>40 to 44 years old</t>
+  </si>
+  <si>
+    <t>ANRBFT4550</t>
+  </si>
+  <si>
+    <t>45 to 50 years old</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +132,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,15 +151,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -353,762 +456,545 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>index</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
         <v>1976</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>1977</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1">
         <v>1978</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="E1" s="1">
         <v>1979</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="F1" s="1">
         <v>1980</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="G1" s="1">
         <v>1981</v>
       </c>
-      <c r="H1" s="1" t="n">
+      <c r="H1" s="1">
         <v>1982</v>
       </c>
-      <c r="I1" s="1" t="n">
+      <c r="I1" s="1">
         <v>1983</v>
       </c>
-      <c r="J1" s="1" t="n">
+      <c r="J1" s="1">
         <v>1984</v>
       </c>
-      <c r="K1" s="1" t="n">
+      <c r="K1" s="1">
         <v>1985</v>
       </c>
-      <c r="L1" s="1" t="n">
+      <c r="L1" s="1">
         <v>1986</v>
       </c>
-      <c r="M1" s="1" t="n">
+      <c r="M1" s="1">
         <v>1987</v>
       </c>
-      <c r="N1" s="1" t="n">
+      <c r="N1" s="1">
         <v>1988</v>
       </c>
-      <c r="O1" s="1" t="n">
+      <c r="O1" s="1">
         <v>1990</v>
       </c>
-      <c r="P1" s="1" t="n">
+      <c r="P1" s="1">
         <v>1992</v>
       </c>
-      <c r="Q1" s="1" t="n">
+      <c r="Q1" s="1">
         <v>1994</v>
       </c>
-      <c r="R1" s="1" t="n">
+      <c r="R1" s="1">
         <v>1995</v>
       </c>
-      <c r="S1" s="1" t="n">
+      <c r="S1" s="1">
         <v>1998</v>
       </c>
-      <c r="T1" s="1" t="n">
+      <c r="T1" s="1">
         <v>2000</v>
       </c>
-      <c r="U1" s="1" t="n">
+      <c r="U1" s="1">
         <v>2002</v>
       </c>
-      <c r="V1" s="1" t="n">
+      <c r="V1" s="1">
         <v>2004</v>
       </c>
-      <c r="W1" s="1" t="n">
+      <c r="W1" s="1">
         <v>2006</v>
       </c>
-      <c r="X1" s="1" t="n">
+      <c r="X1" s="1">
         <v>2008</v>
       </c>
-      <c r="Y1" s="1" t="n">
+      <c r="Y1" s="1">
         <v>2010</v>
       </c>
-      <c r="Z1" s="1" t="n">
+      <c r="Z1" s="1">
         <v>2012</v>
       </c>
-      <c r="AA1" s="1" t="n">
+      <c r="AA1" s="1">
         <v>2014</v>
       </c>
-      <c r="AB1" s="1" t="n">
+      <c r="AB1" s="1">
         <v>2016</v>
       </c>
-      <c r="AC1" s="1" t="n">
+      <c r="AC1" s="1">
         <v>2018</v>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Index</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Label</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>order</t>
-        </is>
+      <c r="AD1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>ANRBFT1550</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="n">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z2">
         <v>1297</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2">
         <v>1270</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2">
         <v>1252</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2">
         <v>1227</v>
       </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>ANRBFT1550</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>15 to 50 years old</t>
-        </is>
-      </c>
-      <c r="AF2" t="n">
+      <c r="AD2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF2">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>ANRBFT1544</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3">
         <v>1227</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>1218</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3">
         <v>1211</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>1182.3</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3">
         <v>1169</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3">
         <v>1164.2</v>
       </c>
-      <c r="Y3" t="n">
-        <v>1126.9</v>
-      </c>
-      <c r="Z3" t="n">
+      <c r="Y3">
+        <v>1126.9000000000001</v>
+      </c>
+      <c r="Z3">
         <v>1152</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3">
         <v>1126</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3">
         <v>1116</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3">
         <v>1076</v>
       </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>ANRBFT1544</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>15 to 44 years old</t>
-        </is>
-      </c>
-      <c r="AF3" t="n">
+      <c r="AD3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF3">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>ANRBFT1519</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S4">
         <v>138</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>131</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4">
         <v>140</v>
       </c>
-      <c r="V4" t="n">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="W4" t="n">
+      <c r="V4">
+        <v>95.6</v>
+      </c>
+      <c r="W4">
         <v>97.5</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4">
         <v>89.7</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4">
         <v>68</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4">
         <v>68</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4">
         <v>55</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4">
         <v>54</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4">
         <v>46</v>
       </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>ANRBFT1519</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>15 to 19 years old</t>
-        </is>
-      </c>
-      <c r="AF4" t="n">
+      <c r="AD4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF4">
         <v>2</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>ANRBFT2024</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5">
         <v>555</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5">
         <v>572</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5">
         <v>525</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5">
         <v>489.3</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5">
         <v>488.6</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5">
         <v>460.3</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5">
         <v>441</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5">
         <v>421</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5">
         <v>371</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5">
         <v>345</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5">
         <v>308</v>
       </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>ANRBFT2024</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>20 to 24 years old</t>
-        </is>
-      </c>
-      <c r="AF5" t="n">
+      <c r="AD5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF5">
         <v>3</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>ANRBFT2529</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6">
         <v>1063</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6">
         <v>1049</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6">
         <v>1050</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6">
         <v>1060</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6">
         <v>1029.5</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6">
         <v>1026.5</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6">
         <v>978</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6">
         <v>955</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6">
         <v>949</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6">
         <v>844</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6">
         <v>842</v>
       </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>ANRBFT2529</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>25 to 29 years old</t>
-        </is>
-      </c>
-      <c r="AF6" t="n">
+      <c r="AD6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF6">
         <v>4</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>ANRBFT3034</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S7">
         <v>1546</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7">
         <v>1549</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U7">
         <v>1543</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V7">
         <v>1563.7</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W7">
         <v>1595.2</v>
       </c>
-      <c r="X7" t="n">
+      <c r="X7">
         <v>1601.3</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y7">
         <v>1550.4</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z7">
         <v>1563</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7">
         <v>1510</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7">
         <v>1489</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7">
         <v>1402</v>
       </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>ANRBFT3034</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>30 to 34 years old</t>
-        </is>
-      </c>
-      <c r="AF7" t="n">
+      <c r="AD7" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF7">
         <v>5</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>ANRBFT3539</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S8">
         <v>1877</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8">
         <v>1839</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U8">
         <v>1849</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V8">
         <v>1843.6</v>
       </c>
-      <c r="W8" t="n">
+      <c r="W8">
         <v>1873.6</v>
       </c>
-      <c r="X8" t="n">
+      <c r="X8">
         <v>1897.6</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Y8">
         <v>1867.2</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="Z8">
         <v>1990</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA8">
         <v>1922</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB8">
         <v>1973</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC8">
         <v>1855</v>
       </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>ANRBFT3539</t>
-        </is>
-      </c>
-      <c r="AE8" t="inlineStr">
-        <is>
-          <t>35 to 39 years old</t>
-        </is>
-      </c>
-      <c r="AF8" t="n">
+      <c r="AD8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF8">
         <v>6</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>ANRBFT4044</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
         <v>3091</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>3132</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>3096</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>2996</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>2988</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>2861</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>2783</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>2688</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>2558</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>2447</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>2302</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>2218</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9">
         <v>2147</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>2045</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9">
         <v>2012</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9">
         <v>1965</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9">
         <v>1961</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9">
         <v>1877</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9">
         <v>1913</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9">
         <v>1930</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9">
         <v>1895</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9">
         <v>1862</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9">
         <v>1901</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9">
         <v>1907</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z9">
         <v>1998</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AA9">
         <v>2018</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AB9">
         <v>2068</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AC9">
         <v>2036</v>
       </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>ANRBFT4044</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>40 to 44 years old</t>
-        </is>
-      </c>
-      <c r="AF9" t="n">
+      <c r="AD9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF9">
         <v>7</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>ANRBFT4550</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="n">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z10">
         <v>1982</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AA10">
         <v>1981</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AB10">
         <v>1936</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AC10">
         <v>1999</v>
       </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>ANRBFT4550</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>45 to 50 years old</t>
-        </is>
-      </c>
-      <c r="AF10" t="n">
+      <c r="AD10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF10">
         <v>8</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>